--- a/trunk/HeSWaveRes/HeEngs.xlsx
+++ b/trunk/HeSWaveRes/HeEngs.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -342,12 +342,254 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="B3:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="27.140625" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6">
+      <c r="B3">
+        <v>2.87902856912048</v>
+      </c>
+      <c r="C3">
+        <v>2.1441972587318099</v>
+      </c>
+      <c r="D3">
+        <f>(B3-C3)*27.2116</f>
+        <v>19.995935685772338</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4">
+        <v>2.87902856912048</v>
+      </c>
+      <c r="C4">
+        <v>2.1742648562881501</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D22" si="0">(B4-C4)*27.2116</f>
+        <v>19.177748248108227</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5">
+        <v>2.87902856912048</v>
+      </c>
+      <c r="C5">
+        <v>2.8789623029999998</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>1.8032071640595112E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6">
+        <v>2.87902856912048</v>
+      </c>
+      <c r="C6">
+        <v>2.8725066730000002</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>0.17747122847204866</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7">
+        <v>2.87902856912048</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>78.342973811478856</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8">
+        <v>2.87902856912048</v>
+      </c>
+      <c r="C8">
+        <v>2.174264618</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>19.177754732310053</v>
+      </c>
+      <c r="E8">
+        <v>19.177748248108227</v>
+      </c>
+      <c r="F8">
+        <f>D8-E8</f>
+        <v>6.484201826140179E-6</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9">
+        <v>2.87902856912048</v>
+      </c>
+      <c r="C9">
+        <v>2.1742455039999999</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>19.178274854832456</v>
+      </c>
+      <c r="E9">
+        <v>19.177748248108227</v>
+      </c>
+      <c r="F9">
+        <f>D9-E9</f>
+        <v>5.266067242288841E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10">
+        <v>2.87902856912048</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>78.342973811478856</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11">
+        <v>2.87902856912048</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>23.919773811478855</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12">
+        <v>2.87902856912048</v>
+      </c>
+      <c r="C12">
+        <v>2.0210794230000002</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>23.346168984572049</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13">
+        <v>2.87902856912048</v>
+      </c>
+      <c r="C13">
+        <v>2.0225836949999998</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>23.30523533661686</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14">
+        <v>2.87902856912048</v>
+      </c>
+      <c r="C14">
+        <v>2.033392203</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>23.011118540324055</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15">
+        <v>2.87902856912048</v>
+      </c>
+      <c r="C15">
+        <v>2.0364385600000001</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>22.928222292182852</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16">
+        <v>2.87902856912048</v>
+      </c>
+      <c r="C16">
+        <v>2.0684900700000002</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>22.056049422666849</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17">
+        <v>2.87902856912048</v>
+      </c>
+      <c r="C17">
+        <v>2.0607923559999999</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>22.265516536949256</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18">
+        <v>2.87902856912048</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>78.342973811478856</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19">
+        <v>2.87902856912048</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>78.342973811478856</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20">
+        <v>2.87902856912048</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>78.342973811478856</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21">
+        <v>2.87902856912048</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>78.342973811478856</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22">
+        <v>2.87902856912048</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>78.342973811478856</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
